--- a/DATA/IsoData/RMNPIsoData.xlsx
+++ b/DATA/IsoData/RMNPIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">9c1eb418-c58c-4bba-84de-2854e8319ffb</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">462da586-8292-418e-ad6f-9da1134b43a8</t>
   </si>
   <si>
     <t xml:space="preserve">RMNP.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152910Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3cc98f0-af6f-4657-86c2-b327bbdc25b7</t>
+    <t xml:space="preserve">20210111T193931Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edfcb787-347f-4eb3-b6be-6de170026ce4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20181024.1030</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000051137</t>
   </si>
   <si>
-    <t xml:space="preserve">05a21cdd-1517-4395-acc5-d8369a90daec</t>
+    <t xml:space="preserve">8c9fd58f-4923-488f-8394-516153b0d04e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20181115.1421</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000051144</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155816Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92592e15-24c1-427c-982f-c3d4947aec09</t>
+    <t xml:space="preserve">20210111T193536Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e533728-b9cd-4206-949d-cc27fac69f70</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20181128.1107</t>
@@ -128,7 +134,7 @@
     <t xml:space="preserve">A00000051157</t>
   </si>
   <si>
-    <t xml:space="preserve">dbcb0a9d-85e6-4411-921c-6f2de0c7449b</t>
+    <t xml:space="preserve">490ae050-63f9-40e7-90b3-7e67aee3206f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20181212.1318</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">A00000051383</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161345Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4a9974f1-e55e-4614-b6da-ae413f8b423b</t>
+    <t xml:space="preserve">20210111T193636Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0b9bd07d-2d8a-4171-9b70-8f3d39a95e26</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190109.1116</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000051384</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151244Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57b67405-5cb5-45a2-9f29-32a358395b1e</t>
+    <t xml:space="preserve">20210111T192038Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603b11a8-12ab-4608-b690-5b7bdfbac25b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190123.1136</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000051385</t>
   </si>
   <si>
-    <t xml:space="preserve">122a0578-80a0-443b-921c-607ecc6f840a</t>
+    <t xml:space="preserve">37f2fe39-f431-4f93-86bc-57c5ce65f8cc</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190418.0926</t>
@@ -182,10 +188,10 @@
     <t xml:space="preserve">A00000089851</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151515Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89e0cc2d-8649-46f7-98df-9746924b177b</t>
+    <t xml:space="preserve">20210111T192537Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b725218c-8306-4f08-9d3c-74e6e3d7aa8a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190502.0941</t>
@@ -197,10 +203,10 @@
     <t xml:space="preserve">A00000089682</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155424Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97e8f791-fb1e-4396-863a-dbd202b38456</t>
+    <t xml:space="preserve">20210111T193202Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de9cf58a-6f9f-41bc-adf0-aa81a1ee5812</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190514.0942</t>
@@ -212,7 +218,7 @@
     <t xml:space="preserve">A00000089964</t>
   </si>
   <si>
-    <t xml:space="preserve">94806e12-e715-4a28-9be7-c251c70f699b</t>
+    <t xml:space="preserve">825db4b5-2d94-4688-95ae-412611760a32</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190528.0846</t>
@@ -224,7 +230,7 @@
     <t xml:space="preserve">A00000089983</t>
   </si>
   <si>
-    <t xml:space="preserve">1c668fd0-6f39-4814-90f4-659861dd38ff</t>
+    <t xml:space="preserve">2785df46-27a2-48f3-83d8-5da81412180a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190612.1034</t>
@@ -236,10 +242,10 @@
     <t xml:space="preserve">A00000089902</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155720Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">835a106d-0590-4ea8-a1f1-19fa988cb2b9</t>
+    <t xml:space="preserve">20210111T193402Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b615813a-56b4-4aef-9c54-dc6f4834452e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190626.0840</t>
@@ -251,7 +257,7 @@
     <t xml:space="preserve">A00000090686</t>
   </si>
   <si>
-    <t xml:space="preserve">36dd5d4a-0133-4895-a0fb-a9b0932d58aa</t>
+    <t xml:space="preserve">86329117-5c63-4959-826d-8167b8c385df</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190709.0853</t>
@@ -263,10 +269,10 @@
     <t xml:space="preserve">A00000091073</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T154909Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0783f1b5-0e77-4a7e-9fa7-0b5a075afb27</t>
+    <t xml:space="preserve">20210111T193459Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8dee6734-d17a-4512-99b4-0372ca44e5da</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190724.0851</t>
@@ -278,7 +284,7 @@
     <t xml:space="preserve">A00000091630</t>
   </si>
   <si>
-    <t xml:space="preserve">89c27fa2-11a2-4e3b-9e7c-7c414ad94c11</t>
+    <t xml:space="preserve">86621e7a-9e39-4802-8a0b-e84b8c9e43a0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190821.0906</t>
@@ -290,10 +296,10 @@
     <t xml:space="preserve">A00000092242</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155127Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0c5cf270-bf44-49a5-97ed-98ea89bebf03</t>
+    <t xml:space="preserve">20210111T193022Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4c7e0b39-d417-4c17-baec-91d6b3a9f625</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20190918.0911</t>
@@ -305,10 +311,10 @@
     <t xml:space="preserve">A00000092279</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152930Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0d260af3-b78c-41af-b2e2-eb392adaeb9f</t>
+    <t xml:space="preserve">20210111T193851Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2394943d-9803-47a6-819d-2d02da931fcf</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20191001.0855</t>
@@ -320,10 +326,10 @@
     <t xml:space="preserve">A00000092280</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155834Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c0d21806-5071-4adf-9457-4d0b7b38bae2</t>
+    <t xml:space="preserve">20210111T193556Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d34facf-33ef-42e2-a143-eeed9a330d45</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20191016.0945</t>
@@ -335,7 +341,7 @@
     <t xml:space="preserve">A00000093326</t>
   </si>
   <si>
-    <t xml:space="preserve">82d31beb-a118-4a71-b6ba-e5dfafcc50c3</t>
+    <t xml:space="preserve">60b1070e-8efc-44f4-b49d-8dd97388f574</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20191031.1058</t>
@@ -347,7 +353,7 @@
     <t xml:space="preserve">A00000089858</t>
   </si>
   <si>
-    <t xml:space="preserve">13ad3bbe-e540-4fa8-af82-775a18ebdd03</t>
+    <t xml:space="preserve">897ef734-3cfe-4080-baba-01a30dda376e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20191112.0922</t>
@@ -359,10 +365,10 @@
     <t xml:space="preserve">A00000089838</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161418Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fa6f9c27-f350-453e-9de0-5f2af2bf87ff</t>
+    <t xml:space="preserve">20210111T193705Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70bcccdb-bed8-4294-b4dd-2979f32abfd2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20191125.1253</t>
@@ -374,7 +380,7 @@
     <t xml:space="preserve">A00000089802</t>
   </si>
   <si>
-    <t xml:space="preserve">42eb0a54-8d66-45d6-954d-64e5e2edcc0d</t>
+    <t xml:space="preserve">db1e2c91-893f-4d00-bf79-afaad0c8b0ab</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20191219.1039</t>
@@ -386,10 +392,10 @@
     <t xml:space="preserve">A00000089825</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153520Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12c82754-4848-4022-887b-3011dd911081</t>
+    <t xml:space="preserve">20210111T194021Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a604b9bb-093d-4ea6-adac-a828d05c7a99</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.RMNP.20200107.1319</t>
@@ -401,7 +407,124 @@
     <t xml:space="preserve">A00000089807</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T151810Z</t>
+    <t xml:space="preserve">20210111T193100Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6c61e8d4-c985-4f92-8d3b-3c0b72256051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200122.0959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200122.0959.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000089790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1bd3b085-6363-4299-b989-214fbd273cfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200206.0925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200206.0925.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000089768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T193237Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d5500de9-12bc-4009-a9e7-c21fb1988a3c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200220.1052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200220.1052.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000089751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c8a50a9c-56a0-4e9e-83b2-664ba023ec8c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200304.1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200304.1022.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000089758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T192639Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84528723-f3f1-4430-9033-ce857350d0a7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200624.1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200624.1010.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T193526Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aade2293-f372-4af5-9e79-ea5bb5966e47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200720.1035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200720.1035.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T193048Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c4e288a9-e4c1-426f-b17d-f4decb604042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200804.1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200804.1030.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T193914Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f61ecd2-1bab-49a3-8964-5f447d4c8361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200901.0940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.RMNP.20200901.0940.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000121674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T193515Z</t>
   </si>
 </sst>
 </file>
@@ -739,7 +862,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -793,23 +916,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43361.7083333333</v>
@@ -830,35 +956,38 @@
         <v>0.223</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43423.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43382.7173611111</v>
@@ -879,35 +1008,38 @@
         <v>0.251</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43423.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43397.6930555556</v>
@@ -928,35 +1060,38 @@
         <v>0.196</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43419.8930555556</v>
@@ -977,35 +1112,38 @@
         <v>0.172</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43432.7604166667</v>
@@ -1026,35 +1164,38 @@
         <v>0.192</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43462.6868055556</v>
@@ -1075,35 +1216,38 @@
         <v>0.447</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43551.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43474.7666666667</v>
@@ -1124,35 +1268,38 @@
         <v>0.71</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43551.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43558.7048611111</v>
@@ -1173,35 +1320,38 @@
         <v>0.454</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43620.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43572.6458333333</v>
@@ -1222,35 +1372,38 @@
         <v>0.572</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43620.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43587.6722222222</v>
@@ -1271,35 +1424,38 @@
         <v>0.556</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43620.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43599.6631944444</v>
@@ -1320,35 +1476,38 @@
         <v>0.068</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43613.6229166667</v>
@@ -1369,35 +1528,38 @@
         <v>0.197</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43628.7</v>
@@ -1418,35 +1580,38 @@
         <v>0.173</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43668.75</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43642.6243055556</v>
@@ -1467,35 +1632,38 @@
         <v>0.083</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43655.6381944444</v>
@@ -1516,35 +1684,38 @@
         <v>0.056</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43670.6256944444</v>
@@ -1565,35 +1736,38 @@
         <v>0.061</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43711.6666666667</v>
@@ -1614,35 +1788,38 @@
         <v>0.065</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43726.6388888889</v>
@@ -1663,35 +1840,38 @@
         <v>0.179</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43739.6270833333</v>
@@ -1712,35 +1892,38 @@
         <v>0.111</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43754.6791666667</v>
@@ -1761,38 +1944,41 @@
         <v>0.197</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43805.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>43754.6791666667</v>
+        <v>43769.7083333333</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>43781.6819444444</v>
@@ -1810,35 +1996,38 @@
         <v>0.032</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>43781.6819444444</v>
@@ -1859,35 +2048,38 @@
         <v>0.198</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>43794.8652777778</v>
@@ -1908,35 +2100,38 @@
         <v>0.193</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>43818.7416666667</v>
@@ -1957,17 +2152,436 @@
         <v>0.298</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25"/>
       <c r="Q25" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="R25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>43837.8541666667</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>43852.7076388889</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-17.196</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-143.987</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>131</v>
+      </c>
+      <c r="R26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>43852.7208333333</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>43867.6840277778</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-15.241</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-130.968</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>141</v>
+      </c>
+      <c r="R27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>43867.6895833333</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>43881.7444444444</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-19.406</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-165.538</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28" t="s">
+        <v>141</v>
+      </c>
+      <c r="R28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>43881.7520833333</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>43894.7236111111</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-15.013</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-125.916</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>43985.75</v>
+      </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29" t="s">
+        <v>150</v>
+      </c>
+      <c r="R29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>43992.7229166667</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>44006.6736111111</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-12.734</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-92.148</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>44067.75</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30" t="s">
+        <v>155</v>
+      </c>
+      <c r="R30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>44006.6805555556</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>44032.6909722222</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-7.035</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-64.353</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31"/>
+      <c r="Q31" t="s">
+        <v>160</v>
+      </c>
+      <c r="R31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>44032.6965277778</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>44047.6875</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-7.485</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-52.864</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32" t="s">
+        <v>165</v>
+      </c>
+      <c r="R32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>44061.6784722222</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>44075.6527777778</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-4.966</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-31.378</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>44125.75</v>
+      </c>
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33" t="s">
+        <v>170</v>
+      </c>
+      <c r="R33" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
